--- a/Config/excel/角色.xlsx
+++ b/Config/excel/角色.xlsx
@@ -21,14 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>id#id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name#string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name2#string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>familyName#string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +106,22 @@
   </si>
   <si>
     <t>周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>familyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +461,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -475,30 +475,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -506,13 +506,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -520,13 +520,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -534,13 +534,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -548,13 +548,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -562,13 +562,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -576,17 +576,18 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>